--- a/文件操作/2-工资处理/工资统计.xlsx
+++ b/文件操作/2-工资处理/工资统计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\课程\Pyhton\python_code\文件操作\2-工资处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D2588F-D7AA-4500-8474-ADFE642E48A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="14955" windowHeight="8865" tabRatio="705" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14187" tabRatio="705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="10" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="理论工作量" sheetId="7" r:id="rId5"/>
     <sheet name="工作量汇总" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
   <si>
     <t>教师姓名</t>
   </si>
@@ -673,16 +679,6 @@
   <si>
     <t>课程系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈晓</t>
-  </si>
-  <si>
-    <t>陈晓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李念</t>
   </si>
   <si>
     <t>email</t>
@@ -740,7 +736,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -873,16 +869,82 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="常规_Ex_2" xfId="2"/>
-    <cellStyle name="常规_ks9" xfId="5"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规_Ex_2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规_ks9" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="样式 1" xfId="3"/>
+    <cellStyle name="样式 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF0033CC"/>
     </mruColors>
@@ -890,6 +952,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -900,7 +965,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="2E353D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -938,7 +1003,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +1036,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,6 +1088,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1181,465 +1280,465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="22" customWidth="1"/>
     <col min="10" max="258" width="9" style="7"/>
-    <col min="259" max="259" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="265" max="514" width="9" style="7"/>
-    <col min="515" max="515" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="521" max="770" width="9" style="7"/>
-    <col min="771" max="771" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="777" max="1026" width="9" style="7"/>
-    <col min="1027" max="1027" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="1033" max="1282" width="9" style="7"/>
-    <col min="1283" max="1283" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="1289" max="1538" width="9" style="7"/>
-    <col min="1539" max="1539" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="1545" max="1794" width="9" style="7"/>
-    <col min="1795" max="1795" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="1801" max="2050" width="9" style="7"/>
-    <col min="2051" max="2051" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2057" max="2306" width="9" style="7"/>
-    <col min="2307" max="2307" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2313" max="2562" width="9" style="7"/>
-    <col min="2563" max="2563" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2569" max="2818" width="9" style="7"/>
-    <col min="2819" max="2819" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2825" max="3074" width="9" style="7"/>
-    <col min="3075" max="3075" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3081" max="3330" width="9" style="7"/>
-    <col min="3331" max="3331" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3337" max="3586" width="9" style="7"/>
-    <col min="3587" max="3587" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3593" max="3842" width="9" style="7"/>
-    <col min="3843" max="3843" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3849" max="4098" width="9" style="7"/>
-    <col min="4099" max="4099" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4105" max="4354" width="9" style="7"/>
-    <col min="4355" max="4355" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4361" max="4610" width="9" style="7"/>
-    <col min="4611" max="4611" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4617" max="4866" width="9" style="7"/>
-    <col min="4867" max="4867" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="4873" max="5122" width="9" style="7"/>
-    <col min="5123" max="5123" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5129" max="5378" width="9" style="7"/>
-    <col min="5379" max="5379" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5385" max="5634" width="9" style="7"/>
-    <col min="5635" max="5635" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5641" max="5890" width="9" style="7"/>
-    <col min="5891" max="5891" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5897" max="6146" width="9" style="7"/>
-    <col min="6147" max="6147" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6153" max="6402" width="9" style="7"/>
-    <col min="6403" max="6403" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6409" max="6658" width="9" style="7"/>
-    <col min="6659" max="6659" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6665" max="6914" width="9" style="7"/>
-    <col min="6915" max="6915" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6921" max="7170" width="9" style="7"/>
-    <col min="7171" max="7171" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7177" max="7426" width="9" style="7"/>
-    <col min="7427" max="7427" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7433" max="7682" width="9" style="7"/>
-    <col min="7683" max="7683" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7689" max="7938" width="9" style="7"/>
-    <col min="7939" max="7939" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="7945" max="8194" width="9" style="7"/>
-    <col min="8195" max="8195" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8201" max="8450" width="9" style="7"/>
-    <col min="8451" max="8451" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8457" max="8706" width="9" style="7"/>
-    <col min="8707" max="8707" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8713" max="8962" width="9" style="7"/>
-    <col min="8963" max="8963" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8969" max="9218" width="9" style="7"/>
-    <col min="9219" max="9219" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9225" max="9474" width="9" style="7"/>
-    <col min="9475" max="9475" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9481" max="9730" width="9" style="7"/>
-    <col min="9731" max="9731" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9737" max="9986" width="9" style="7"/>
-    <col min="9987" max="9987" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="9993" max="10242" width="9" style="7"/>
-    <col min="10243" max="10243" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="10249" max="10498" width="9" style="7"/>
-    <col min="10499" max="10499" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="10505" max="10754" width="9" style="7"/>
-    <col min="10755" max="10755" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="10761" max="11010" width="9" style="7"/>
-    <col min="11011" max="11011" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11017" max="11266" width="9" style="7"/>
-    <col min="11267" max="11267" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11273" max="11522" width="9" style="7"/>
-    <col min="11523" max="11523" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11529" max="11778" width="9" style="7"/>
-    <col min="11779" max="11779" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="11785" max="12034" width="9" style="7"/>
-    <col min="12035" max="12035" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12041" max="12290" width="9" style="7"/>
-    <col min="12291" max="12291" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12297" max="12546" width="9" style="7"/>
-    <col min="12547" max="12547" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12553" max="12802" width="9" style="7"/>
-    <col min="12803" max="12803" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="12809" max="13058" width="9" style="7"/>
-    <col min="13059" max="13059" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13065" max="13314" width="9" style="7"/>
-    <col min="13315" max="13315" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13321" max="13570" width="9" style="7"/>
-    <col min="13571" max="13571" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13577" max="13826" width="9" style="7"/>
-    <col min="13827" max="13827" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="13833" max="14082" width="9" style="7"/>
-    <col min="14083" max="14083" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14089" max="14338" width="9" style="7"/>
-    <col min="14339" max="14339" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14345" max="14594" width="9" style="7"/>
-    <col min="14595" max="14595" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14601" max="14850" width="9" style="7"/>
-    <col min="14851" max="14851" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14857" max="15106" width="9" style="7"/>
-    <col min="15107" max="15107" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="15113" max="15362" width="9" style="7"/>
-    <col min="15363" max="15363" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="15369" max="15618" width="9" style="7"/>
-    <col min="15619" max="15619" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="15625" max="15874" width="9" style="7"/>
-    <col min="15875" max="15875" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="15881" max="16130" width="9" style="7"/>
-    <col min="16131" max="16131" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="11.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="5.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="16137" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1669,7 +1768,7 @@
         <v>111</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1698,7 +1797,7 @@
         <v>69</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1727,7 +1826,7 @@
         <v>70</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1756,7 +1855,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1785,7 +1884,7 @@
         <v>72</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1814,7 +1913,7 @@
         <v>73</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1843,7 +1942,7 @@
         <v>74</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1872,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1901,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1930,7 +2029,7 @@
         <v>77</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1959,7 +2058,7 @@
         <v>78</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1988,7 +2087,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2017,24 +2116,24 @@
         <v>80</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -2043,21 +2142,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2102,8 +2201,8 @@
       <c r="E2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>184</v>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>168</v>
@@ -2128,8 +2227,8 @@
       <c r="E3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>183</v>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>168</v>
@@ -2154,8 +2253,8 @@
       <c r="E4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>185</v>
+      <c r="F4" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>168</v>
@@ -2180,8 +2279,8 @@
       <c r="E5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>185</v>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>168</v>
@@ -2770,20 +2869,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2820,7 +2919,7 @@
       </c>
       <c r="B2" s="14" t="str">
         <f>实验教学任务!F2</f>
-        <v>陈晓</v>
+        <v>陈勇</v>
       </c>
       <c r="C2" s="14" t="str">
         <f>实验教学任务!A2</f>
@@ -3098,7 +3197,7 @@
       <c r="H27" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
     <sortCondition ref="A3"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3109,23 +3208,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3174,7 +3273,7 @@
         <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>178</v>
@@ -3203,7 +3302,7 @@
         <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>179</v>
@@ -3232,7 +3331,7 @@
         <v>148</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>178</v>
@@ -3657,529 +3756,529 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="257" width="9" style="2"/>
-    <col min="258" max="259" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="261" max="262" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="26.125" style="2" customWidth="1"/>
-    <col min="266" max="266" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="258" max="259" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="26.109375" style="2" customWidth="1"/>
+    <col min="266" max="266" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="267" max="513" width="9" style="2"/>
-    <col min="514" max="515" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="517" max="518" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="26.125" style="2" customWidth="1"/>
-    <col min="522" max="522" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="514" max="515" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="26.109375" style="2" customWidth="1"/>
+    <col min="522" max="522" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="523" max="769" width="9" style="2"/>
-    <col min="770" max="771" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="773" max="774" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="26.125" style="2" customWidth="1"/>
-    <col min="778" max="778" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="770" max="771" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="26.109375" style="2" customWidth="1"/>
+    <col min="778" max="778" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="779" max="1025" width="9" style="2"/>
-    <col min="1026" max="1027" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1030" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="26.125" style="2" customWidth="1"/>
-    <col min="1034" max="1034" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1027" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="26.109375" style="2" customWidth="1"/>
+    <col min="1034" max="1034" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="1035" max="1281" width="9" style="2"/>
-    <col min="1282" max="1283" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1286" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="26.125" style="2" customWidth="1"/>
-    <col min="1290" max="1290" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1283" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="26.109375" style="2" customWidth="1"/>
+    <col min="1290" max="1290" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="1291" max="1537" width="9" style="2"/>
-    <col min="1538" max="1539" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1542" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="26.125" style="2" customWidth="1"/>
-    <col min="1546" max="1546" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1539" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="26.109375" style="2" customWidth="1"/>
+    <col min="1546" max="1546" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="1547" max="1793" width="9" style="2"/>
-    <col min="1794" max="1795" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1798" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="26.125" style="2" customWidth="1"/>
-    <col min="1802" max="1802" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1795" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="26.109375" style="2" customWidth="1"/>
+    <col min="1802" max="1802" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="1803" max="2049" width="9" style="2"/>
-    <col min="2050" max="2051" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2054" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="26.125" style="2" customWidth="1"/>
-    <col min="2058" max="2058" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2051" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="26.109375" style="2" customWidth="1"/>
+    <col min="2058" max="2058" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2059" max="2305" width="9" style="2"/>
-    <col min="2306" max="2307" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2310" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="26.125" style="2" customWidth="1"/>
-    <col min="2314" max="2314" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2307" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="26.109375" style="2" customWidth="1"/>
+    <col min="2314" max="2314" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2315" max="2561" width="9" style="2"/>
-    <col min="2562" max="2563" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2566" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="26.125" style="2" customWidth="1"/>
-    <col min="2570" max="2570" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2563" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="26.109375" style="2" customWidth="1"/>
+    <col min="2570" max="2570" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2571" max="2817" width="9" style="2"/>
-    <col min="2818" max="2819" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2822" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="26.125" style="2" customWidth="1"/>
-    <col min="2826" max="2826" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2819" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="26.109375" style="2" customWidth="1"/>
+    <col min="2826" max="2826" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2827" max="3073" width="9" style="2"/>
-    <col min="3074" max="3075" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3078" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="26.125" style="2" customWidth="1"/>
-    <col min="3082" max="3082" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3075" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="26.109375" style="2" customWidth="1"/>
+    <col min="3082" max="3082" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3083" max="3329" width="9" style="2"/>
-    <col min="3330" max="3331" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3334" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="26.125" style="2" customWidth="1"/>
-    <col min="3338" max="3338" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3331" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="26.109375" style="2" customWidth="1"/>
+    <col min="3338" max="3338" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3339" max="3585" width="9" style="2"/>
-    <col min="3586" max="3587" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3590" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="26.125" style="2" customWidth="1"/>
-    <col min="3594" max="3594" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3587" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="26.109375" style="2" customWidth="1"/>
+    <col min="3594" max="3594" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3595" max="3841" width="9" style="2"/>
-    <col min="3842" max="3843" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3846" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="26.125" style="2" customWidth="1"/>
-    <col min="3850" max="3850" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3843" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="26.109375" style="2" customWidth="1"/>
+    <col min="3850" max="3850" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3851" max="4097" width="9" style="2"/>
-    <col min="4098" max="4099" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4102" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="26.125" style="2" customWidth="1"/>
-    <col min="4106" max="4106" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4099" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="26.109375" style="2" customWidth="1"/>
+    <col min="4106" max="4106" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4107" max="4353" width="9" style="2"/>
-    <col min="4354" max="4355" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4358" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="26.125" style="2" customWidth="1"/>
-    <col min="4362" max="4362" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4355" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="26.109375" style="2" customWidth="1"/>
+    <col min="4362" max="4362" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4363" max="4609" width="9" style="2"/>
-    <col min="4610" max="4611" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4614" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="26.125" style="2" customWidth="1"/>
-    <col min="4618" max="4618" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4611" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="26.109375" style="2" customWidth="1"/>
+    <col min="4618" max="4618" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4619" max="4865" width="9" style="2"/>
-    <col min="4866" max="4867" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4870" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="26.125" style="2" customWidth="1"/>
-    <col min="4874" max="4874" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4867" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="26.109375" style="2" customWidth="1"/>
+    <col min="4874" max="4874" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4875" max="5121" width="9" style="2"/>
-    <col min="5122" max="5123" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5126" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="26.125" style="2" customWidth="1"/>
-    <col min="5130" max="5130" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5123" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="26.109375" style="2" customWidth="1"/>
+    <col min="5130" max="5130" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5131" max="5377" width="9" style="2"/>
-    <col min="5378" max="5379" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5382" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="26.125" style="2" customWidth="1"/>
-    <col min="5386" max="5386" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5379" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="26.109375" style="2" customWidth="1"/>
+    <col min="5386" max="5386" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5387" max="5633" width="9" style="2"/>
-    <col min="5634" max="5635" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5638" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="26.125" style="2" customWidth="1"/>
-    <col min="5642" max="5642" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5635" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="26.109375" style="2" customWidth="1"/>
+    <col min="5642" max="5642" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5643" max="5889" width="9" style="2"/>
-    <col min="5890" max="5891" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5894" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="26.125" style="2" customWidth="1"/>
-    <col min="5898" max="5898" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5891" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="26.109375" style="2" customWidth="1"/>
+    <col min="5898" max="5898" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5899" max="6145" width="9" style="2"/>
-    <col min="6146" max="6147" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6150" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="26.125" style="2" customWidth="1"/>
-    <col min="6154" max="6154" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6147" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="26.109375" style="2" customWidth="1"/>
+    <col min="6154" max="6154" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6155" max="6401" width="9" style="2"/>
-    <col min="6402" max="6403" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6406" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="26.125" style="2" customWidth="1"/>
-    <col min="6410" max="6410" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6403" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="26.109375" style="2" customWidth="1"/>
+    <col min="6410" max="6410" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6411" max="6657" width="9" style="2"/>
-    <col min="6658" max="6659" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6662" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="26.125" style="2" customWidth="1"/>
-    <col min="6666" max="6666" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6659" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="26.109375" style="2" customWidth="1"/>
+    <col min="6666" max="6666" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6667" max="6913" width="9" style="2"/>
-    <col min="6914" max="6915" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6918" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="26.125" style="2" customWidth="1"/>
-    <col min="6922" max="6922" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6915" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="26.109375" style="2" customWidth="1"/>
+    <col min="6922" max="6922" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6923" max="7169" width="9" style="2"/>
-    <col min="7170" max="7171" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7174" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="26.125" style="2" customWidth="1"/>
-    <col min="7178" max="7178" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7171" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="26.109375" style="2" customWidth="1"/>
+    <col min="7178" max="7178" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7179" max="7425" width="9" style="2"/>
-    <col min="7426" max="7427" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7430" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="26.125" style="2" customWidth="1"/>
-    <col min="7434" max="7434" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7427" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="26.109375" style="2" customWidth="1"/>
+    <col min="7434" max="7434" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7435" max="7681" width="9" style="2"/>
-    <col min="7682" max="7683" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7686" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="26.125" style="2" customWidth="1"/>
-    <col min="7690" max="7690" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7683" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="26.109375" style="2" customWidth="1"/>
+    <col min="7690" max="7690" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7691" max="7937" width="9" style="2"/>
-    <col min="7938" max="7939" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7942" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="26.125" style="2" customWidth="1"/>
-    <col min="7946" max="7946" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7939" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="26.109375" style="2" customWidth="1"/>
+    <col min="7946" max="7946" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7947" max="8193" width="9" style="2"/>
-    <col min="8194" max="8195" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8198" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="26.125" style="2" customWidth="1"/>
-    <col min="8202" max="8202" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8195" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="26.109375" style="2" customWidth="1"/>
+    <col min="8202" max="8202" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8203" max="8449" width="9" style="2"/>
-    <col min="8450" max="8451" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8454" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="26.125" style="2" customWidth="1"/>
-    <col min="8458" max="8458" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8451" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="26.109375" style="2" customWidth="1"/>
+    <col min="8458" max="8458" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8459" max="8705" width="9" style="2"/>
-    <col min="8706" max="8707" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8710" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="26.125" style="2" customWidth="1"/>
-    <col min="8714" max="8714" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8707" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="26.109375" style="2" customWidth="1"/>
+    <col min="8714" max="8714" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8715" max="8961" width="9" style="2"/>
-    <col min="8962" max="8963" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8966" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="26.125" style="2" customWidth="1"/>
-    <col min="8970" max="8970" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8963" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="26.109375" style="2" customWidth="1"/>
+    <col min="8970" max="8970" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8971" max="9217" width="9" style="2"/>
-    <col min="9218" max="9219" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9222" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="26.125" style="2" customWidth="1"/>
-    <col min="9226" max="9226" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9219" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="26.109375" style="2" customWidth="1"/>
+    <col min="9226" max="9226" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9227" max="9473" width="9" style="2"/>
-    <col min="9474" max="9475" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9478" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="26.125" style="2" customWidth="1"/>
-    <col min="9482" max="9482" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9475" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="26.109375" style="2" customWidth="1"/>
+    <col min="9482" max="9482" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9483" max="9729" width="9" style="2"/>
-    <col min="9730" max="9731" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9734" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="26.125" style="2" customWidth="1"/>
-    <col min="9738" max="9738" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9731" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="26.109375" style="2" customWidth="1"/>
+    <col min="9738" max="9738" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9739" max="9985" width="9" style="2"/>
-    <col min="9986" max="9987" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9990" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="26.125" style="2" customWidth="1"/>
-    <col min="9994" max="9994" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9987" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="26.109375" style="2" customWidth="1"/>
+    <col min="9994" max="9994" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9995" max="10241" width="9" style="2"/>
-    <col min="10242" max="10243" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10246" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="26.125" style="2" customWidth="1"/>
-    <col min="10250" max="10250" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10243" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="26.109375" style="2" customWidth="1"/>
+    <col min="10250" max="10250" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10251" max="10497" width="9" style="2"/>
-    <col min="10498" max="10499" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10502" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="26.125" style="2" customWidth="1"/>
-    <col min="10506" max="10506" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10499" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="26.109375" style="2" customWidth="1"/>
+    <col min="10506" max="10506" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10507" max="10753" width="9" style="2"/>
-    <col min="10754" max="10755" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10758" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="26.125" style="2" customWidth="1"/>
-    <col min="10762" max="10762" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10755" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="26.109375" style="2" customWidth="1"/>
+    <col min="10762" max="10762" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10763" max="11009" width="9" style="2"/>
-    <col min="11010" max="11011" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11014" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="26.125" style="2" customWidth="1"/>
-    <col min="11018" max="11018" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11011" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="26.109375" style="2" customWidth="1"/>
+    <col min="11018" max="11018" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11019" max="11265" width="9" style="2"/>
-    <col min="11266" max="11267" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11270" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="26.125" style="2" customWidth="1"/>
-    <col min="11274" max="11274" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11267" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="26.109375" style="2" customWidth="1"/>
+    <col min="11274" max="11274" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11275" max="11521" width="9" style="2"/>
-    <col min="11522" max="11523" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11526" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="26.125" style="2" customWidth="1"/>
-    <col min="11530" max="11530" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11523" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="26.109375" style="2" customWidth="1"/>
+    <col min="11530" max="11530" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11531" max="11777" width="9" style="2"/>
-    <col min="11778" max="11779" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11782" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="26.125" style="2" customWidth="1"/>
-    <col min="11786" max="11786" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11779" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="26.109375" style="2" customWidth="1"/>
+    <col min="11786" max="11786" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11787" max="12033" width="9" style="2"/>
-    <col min="12034" max="12035" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12038" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="26.125" style="2" customWidth="1"/>
-    <col min="12042" max="12042" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12035" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="26.109375" style="2" customWidth="1"/>
+    <col min="12042" max="12042" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12043" max="12289" width="9" style="2"/>
-    <col min="12290" max="12291" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12294" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="26.125" style="2" customWidth="1"/>
-    <col min="12298" max="12298" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12291" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="26.109375" style="2" customWidth="1"/>
+    <col min="12298" max="12298" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12299" max="12545" width="9" style="2"/>
-    <col min="12546" max="12547" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12550" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="26.125" style="2" customWidth="1"/>
-    <col min="12554" max="12554" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12547" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="26.109375" style="2" customWidth="1"/>
+    <col min="12554" max="12554" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12555" max="12801" width="9" style="2"/>
-    <col min="12802" max="12803" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12806" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="26.125" style="2" customWidth="1"/>
-    <col min="12810" max="12810" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12803" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="26.109375" style="2" customWidth="1"/>
+    <col min="12810" max="12810" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12811" max="13057" width="9" style="2"/>
-    <col min="13058" max="13059" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13062" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="26.125" style="2" customWidth="1"/>
-    <col min="13066" max="13066" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13059" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="26.109375" style="2" customWidth="1"/>
+    <col min="13066" max="13066" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13067" max="13313" width="9" style="2"/>
-    <col min="13314" max="13315" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13318" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="26.125" style="2" customWidth="1"/>
-    <col min="13322" max="13322" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13315" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="26.109375" style="2" customWidth="1"/>
+    <col min="13322" max="13322" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13323" max="13569" width="9" style="2"/>
-    <col min="13570" max="13571" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13574" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="26.125" style="2" customWidth="1"/>
-    <col min="13578" max="13578" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13571" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="26.109375" style="2" customWidth="1"/>
+    <col min="13578" max="13578" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13579" max="13825" width="9" style="2"/>
-    <col min="13826" max="13827" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13830" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="26.125" style="2" customWidth="1"/>
-    <col min="13834" max="13834" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13827" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="26.109375" style="2" customWidth="1"/>
+    <col min="13834" max="13834" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13835" max="14081" width="9" style="2"/>
-    <col min="14082" max="14083" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14086" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="26.125" style="2" customWidth="1"/>
-    <col min="14090" max="14090" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14083" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="26.109375" style="2" customWidth="1"/>
+    <col min="14090" max="14090" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14091" max="14337" width="9" style="2"/>
-    <col min="14338" max="14339" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14342" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="26.125" style="2" customWidth="1"/>
-    <col min="14346" max="14346" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14339" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="26.109375" style="2" customWidth="1"/>
+    <col min="14346" max="14346" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14347" max="14593" width="9" style="2"/>
-    <col min="14594" max="14595" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14598" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="26.125" style="2" customWidth="1"/>
-    <col min="14602" max="14602" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14595" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="26.109375" style="2" customWidth="1"/>
+    <col min="14602" max="14602" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14603" max="14849" width="9" style="2"/>
-    <col min="14850" max="14851" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14854" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="26.125" style="2" customWidth="1"/>
-    <col min="14858" max="14858" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14851" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="26.109375" style="2" customWidth="1"/>
+    <col min="14858" max="14858" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14859" max="15105" width="9" style="2"/>
-    <col min="15106" max="15107" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15110" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="26.125" style="2" customWidth="1"/>
-    <col min="15114" max="15114" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15107" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="26.109375" style="2" customWidth="1"/>
+    <col min="15114" max="15114" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15115" max="15361" width="9" style="2"/>
-    <col min="15362" max="15363" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15366" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="26.125" style="2" customWidth="1"/>
-    <col min="15370" max="15370" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15363" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="26.109375" style="2" customWidth="1"/>
+    <col min="15370" max="15370" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15371" max="15617" width="9" style="2"/>
-    <col min="15618" max="15619" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15622" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="26.125" style="2" customWidth="1"/>
-    <col min="15626" max="15626" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15619" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="26.109375" style="2" customWidth="1"/>
+    <col min="15626" max="15626" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15627" max="15873" width="9" style="2"/>
-    <col min="15874" max="15875" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15878" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="26.125" style="2" customWidth="1"/>
-    <col min="15882" max="15882" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15875" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="26.109375" style="2" customWidth="1"/>
+    <col min="15882" max="15882" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15883" max="16129" width="9" style="2"/>
-    <col min="16130" max="16131" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16134" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="26.125" style="2" customWidth="1"/>
-    <col min="16138" max="16138" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16131" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="26.109375" style="2" customWidth="1"/>
+    <col min="16138" max="16138" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16139" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4222,7 +4321,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f>理论教学任务!F2</f>
-        <v>陈晓</v>
+        <v>陈勇</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>理论教学任务!A2</f>
@@ -4404,7 +4503,7 @@
       <c r="L18" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I25">
     <sortCondition ref="A4"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4414,335 +4513,335 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7" customWidth="1"/>
     <col min="8" max="257" width="9" style="7"/>
-    <col min="258" max="258" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="259" max="260" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="259" max="260" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="9" style="7"/>
-    <col min="262" max="262" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="263" max="513" width="9" style="7"/>
-    <col min="514" max="514" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="515" max="516" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="515" max="516" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="517" max="517" width="9" style="7"/>
-    <col min="518" max="518" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="519" max="769" width="9" style="7"/>
-    <col min="770" max="770" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="771" max="772" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="771" max="772" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="773" max="773" width="9" style="7"/>
-    <col min="774" max="774" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="775" max="1025" width="9" style="7"/>
-    <col min="1026" max="1026" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1028" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1028" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1029" max="1029" width="9" style="7"/>
-    <col min="1030" max="1030" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1031" max="1281" width="9" style="7"/>
-    <col min="1282" max="1282" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1284" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1284" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1285" max="1285" width="9" style="7"/>
-    <col min="1286" max="1286" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1287" max="1537" width="9" style="7"/>
-    <col min="1538" max="1538" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1540" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1540" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1541" max="1541" width="9" style="7"/>
-    <col min="1542" max="1542" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1543" max="1793" width="9" style="7"/>
-    <col min="1794" max="1794" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1796" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1796" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1797" max="1797" width="9" style="7"/>
-    <col min="1798" max="1798" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="1799" max="2049" width="9" style="7"/>
-    <col min="2050" max="2050" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2052" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2052" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2053" max="2053" width="9" style="7"/>
-    <col min="2054" max="2054" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2055" max="2305" width="9" style="7"/>
-    <col min="2306" max="2306" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2308" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2308" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2309" max="2309" width="9" style="7"/>
-    <col min="2310" max="2310" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2311" max="2561" width="9" style="7"/>
-    <col min="2562" max="2562" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2564" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2564" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2565" max="2565" width="9" style="7"/>
-    <col min="2566" max="2566" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2567" max="2817" width="9" style="7"/>
-    <col min="2818" max="2818" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2820" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2820" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2821" max="2821" width="9" style="7"/>
-    <col min="2822" max="2822" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2823" max="3073" width="9" style="7"/>
-    <col min="3074" max="3074" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3076" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3076" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3077" max="3077" width="9" style="7"/>
-    <col min="3078" max="3078" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3079" max="3329" width="9" style="7"/>
-    <col min="3330" max="3330" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3332" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3332" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3333" max="3333" width="9" style="7"/>
-    <col min="3334" max="3334" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3335" max="3585" width="9" style="7"/>
-    <col min="3586" max="3586" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3588" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3588" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3589" max="3589" width="9" style="7"/>
-    <col min="3590" max="3590" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3591" max="3841" width="9" style="7"/>
-    <col min="3842" max="3842" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3844" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3844" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3845" max="3845" width="9" style="7"/>
-    <col min="3846" max="3846" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3847" max="4097" width="9" style="7"/>
-    <col min="4098" max="4098" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4100" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4100" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4101" max="4101" width="9" style="7"/>
-    <col min="4102" max="4102" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4103" max="4353" width="9" style="7"/>
-    <col min="4354" max="4354" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4356" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4356" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4357" max="4357" width="9" style="7"/>
-    <col min="4358" max="4358" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4359" max="4609" width="9" style="7"/>
-    <col min="4610" max="4610" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4612" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4612" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4613" max="4613" width="9" style="7"/>
-    <col min="4614" max="4614" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4615" max="4865" width="9" style="7"/>
-    <col min="4866" max="4866" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4868" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4868" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4869" max="4869" width="9" style="7"/>
-    <col min="4870" max="4870" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="4871" max="5121" width="9" style="7"/>
-    <col min="5122" max="5122" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5124" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5124" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5125" max="5125" width="9" style="7"/>
-    <col min="5126" max="5126" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5127" max="5377" width="9" style="7"/>
-    <col min="5378" max="5378" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5380" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5380" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5381" max="5381" width="9" style="7"/>
-    <col min="5382" max="5382" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5383" max="5633" width="9" style="7"/>
-    <col min="5634" max="5634" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5636" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5636" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5637" max="5637" width="9" style="7"/>
-    <col min="5638" max="5638" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5639" max="5889" width="9" style="7"/>
-    <col min="5890" max="5890" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5892" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5892" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5893" max="5893" width="9" style="7"/>
-    <col min="5894" max="5894" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="5895" max="6145" width="9" style="7"/>
-    <col min="6146" max="6146" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6148" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6148" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6149" max="6149" width="9" style="7"/>
-    <col min="6150" max="6150" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6151" max="6401" width="9" style="7"/>
-    <col min="6402" max="6402" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6404" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6404" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6405" max="6405" width="9" style="7"/>
-    <col min="6406" max="6406" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6407" max="6657" width="9" style="7"/>
-    <col min="6658" max="6658" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6660" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6660" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6661" max="6661" width="9" style="7"/>
-    <col min="6662" max="6662" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6663" max="6913" width="9" style="7"/>
-    <col min="6914" max="6914" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6916" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6916" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6917" max="6917" width="9" style="7"/>
-    <col min="6918" max="6918" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6919" max="7169" width="9" style="7"/>
-    <col min="7170" max="7170" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7172" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7172" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7173" max="7173" width="9" style="7"/>
-    <col min="7174" max="7174" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7175" max="7425" width="9" style="7"/>
-    <col min="7426" max="7426" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7428" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7428" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7429" max="7429" width="9" style="7"/>
-    <col min="7430" max="7430" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7431" max="7681" width="9" style="7"/>
-    <col min="7682" max="7682" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7684" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7684" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7685" max="7685" width="9" style="7"/>
-    <col min="7686" max="7686" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7687" max="7937" width="9" style="7"/>
-    <col min="7938" max="7938" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7940" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7940" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7941" max="7941" width="9" style="7"/>
-    <col min="7942" max="7942" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7943" max="8193" width="9" style="7"/>
-    <col min="8194" max="8194" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8196" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8196" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8197" max="8197" width="9" style="7"/>
-    <col min="8198" max="8198" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8199" max="8449" width="9" style="7"/>
-    <col min="8450" max="8450" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8452" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8452" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8453" max="8453" width="9" style="7"/>
-    <col min="8454" max="8454" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8455" max="8705" width="9" style="7"/>
-    <col min="8706" max="8706" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8708" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8708" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8709" max="8709" width="9" style="7"/>
-    <col min="8710" max="8710" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8711" max="8961" width="9" style="7"/>
-    <col min="8962" max="8962" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8964" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8964" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8965" max="8965" width="9" style="7"/>
-    <col min="8966" max="8966" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8967" max="9217" width="9" style="7"/>
-    <col min="9218" max="9218" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9220" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9220" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9221" max="9221" width="9" style="7"/>
-    <col min="9222" max="9222" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9223" max="9473" width="9" style="7"/>
-    <col min="9474" max="9474" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9476" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9476" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9477" max="9477" width="9" style="7"/>
-    <col min="9478" max="9478" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9479" max="9729" width="9" style="7"/>
-    <col min="9730" max="9730" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9732" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9732" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9733" max="9733" width="9" style="7"/>
-    <col min="9734" max="9734" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9735" max="9985" width="9" style="7"/>
-    <col min="9986" max="9986" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9988" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9988" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9989" max="9989" width="9" style="7"/>
-    <col min="9990" max="9990" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="9991" max="10241" width="9" style="7"/>
-    <col min="10242" max="10242" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10244" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10244" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10245" max="10245" width="9" style="7"/>
-    <col min="10246" max="10246" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10247" max="10497" width="9" style="7"/>
-    <col min="10498" max="10498" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10500" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10500" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10501" max="10501" width="9" style="7"/>
-    <col min="10502" max="10502" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10503" max="10753" width="9" style="7"/>
-    <col min="10754" max="10754" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10756" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10756" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10757" max="10757" width="9" style="7"/>
-    <col min="10758" max="10758" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="10759" max="11009" width="9" style="7"/>
-    <col min="11010" max="11010" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11012" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11012" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11013" max="11013" width="9" style="7"/>
-    <col min="11014" max="11014" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11015" max="11265" width="9" style="7"/>
-    <col min="11266" max="11266" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11268" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11268" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11269" max="11269" width="9" style="7"/>
-    <col min="11270" max="11270" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11271" max="11521" width="9" style="7"/>
-    <col min="11522" max="11522" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11524" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11524" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11525" max="11525" width="9" style="7"/>
-    <col min="11526" max="11526" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11527" max="11777" width="9" style="7"/>
-    <col min="11778" max="11778" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11780" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11780" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11781" max="11781" width="9" style="7"/>
-    <col min="11782" max="11782" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="11783" max="12033" width="9" style="7"/>
-    <col min="12034" max="12034" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12036" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12036" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12037" max="12037" width="9" style="7"/>
-    <col min="12038" max="12038" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12039" max="12289" width="9" style="7"/>
-    <col min="12290" max="12290" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12292" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12292" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12293" max="12293" width="9" style="7"/>
-    <col min="12294" max="12294" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12295" max="12545" width="9" style="7"/>
-    <col min="12546" max="12546" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12548" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12548" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12549" max="12549" width="9" style="7"/>
-    <col min="12550" max="12550" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12551" max="12801" width="9" style="7"/>
-    <col min="12802" max="12802" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12804" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12804" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12805" max="12805" width="9" style="7"/>
-    <col min="12806" max="12806" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12807" max="13057" width="9" style="7"/>
-    <col min="13058" max="13058" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13060" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13060" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13061" max="13061" width="9" style="7"/>
-    <col min="13062" max="13062" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13063" max="13313" width="9" style="7"/>
-    <col min="13314" max="13314" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13316" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13316" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13317" max="13317" width="9" style="7"/>
-    <col min="13318" max="13318" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13319" max="13569" width="9" style="7"/>
-    <col min="13570" max="13570" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13572" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13572" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13573" max="13573" width="9" style="7"/>
-    <col min="13574" max="13574" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13575" max="13825" width="9" style="7"/>
-    <col min="13826" max="13826" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13828" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13828" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13829" max="13829" width="9" style="7"/>
-    <col min="13830" max="13830" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13831" max="14081" width="9" style="7"/>
-    <col min="14082" max="14082" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14084" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14084" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14085" max="14085" width="9" style="7"/>
-    <col min="14086" max="14086" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14087" max="14337" width="9" style="7"/>
-    <col min="14338" max="14338" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14340" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14340" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14341" max="14341" width="9" style="7"/>
-    <col min="14342" max="14342" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14343" max="14593" width="9" style="7"/>
-    <col min="14594" max="14594" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14596" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14596" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14597" max="14597" width="9" style="7"/>
-    <col min="14598" max="14598" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14599" max="14849" width="9" style="7"/>
-    <col min="14850" max="14850" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14852" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14852" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14853" max="14853" width="9" style="7"/>
-    <col min="14854" max="14854" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="14855" max="15105" width="9" style="7"/>
-    <col min="15106" max="15106" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15108" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15108" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15109" max="15109" width="9" style="7"/>
-    <col min="15110" max="15110" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15111" max="15361" width="9" style="7"/>
-    <col min="15362" max="15362" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15364" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15364" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15365" max="15365" width="9" style="7"/>
-    <col min="15366" max="15366" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15367" max="15617" width="9" style="7"/>
-    <col min="15618" max="15618" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15620" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15620" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15621" max="15621" width="9" style="7"/>
-    <col min="15622" max="15622" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15623" max="15873" width="9" style="7"/>
-    <col min="15874" max="15874" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15876" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15876" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15877" max="15877" width="9" style="7"/>
-    <col min="15878" max="15878" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="15879" max="16129" width="9" style="7"/>
-    <col min="16130" max="16130" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16132" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16132" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16133" max="16133" width="9" style="7"/>
-    <col min="16134" max="16134" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="16135" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
